--- a/medicine/Handicap/Special_(série_télévisée)/Special_(série_télévisée).xlsx
+++ b/medicine/Handicap/Special_(série_télévisée)/Special_(série_télévisée).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Special_(série_télévisée)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Special ou Spécial au Québec est une série télévisée américaine créée par Ryan O'Connell et produite par Warner Bros. Television Studios, Stage 13, That's Wonderful Productions et Campfire.
 Il s'agit de l'adaptation de l'autobiographie I'm Special: And Other Lies We Tell Ourselves (2015) de Ryan O'Connell. Cette comédie suit les aventures de Ryan Hayes, un jeune homme gay avec une paralysie cérébrale légère.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Special_(série_télévisée)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ryan Hayes est une jeune homme gay avec une paralysie cérébrale légère (ou infirmité motrice cérébrale). Il vit dans la banlieue de Los Angeles avec sa mère Karen. Si le fils et la mère ont une relation fusionnelle, Ryan cherche son indépendance.
 Peu avant le début de son stage à Eggwoke, un média en ligne, il est renversé par une voiture, sans conséquence grave. Lorsque ses collègues pensent que son handicap est lié à l'accident, il préfère confirmer cette version plutôt que d'évoquer son infirmité motrice cérébrale.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+          <t>Special_(série_télévisée)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personnages principaux
-Ryan O'Connell (VF : Taric Mehani) : Ryan Hayes, un jeune homme gay avec une paralysie cérébrale légère (16 épisodes, saison 1 et 2)
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan O'Connell (VF : Taric Mehani) : Ryan Hayes, un jeune homme gay avec une paralysie cérébrale légère (16 épisodes, saison 1 et 2)
 Jessica Hecht (VF : Odile Cohen) : Karen Hayes, la mère de Ryan (16 épisodes, saison 1 et 2)
 Punam Patel (VF : Karine Foviau) : Kim Laghari, collègue et amie de Ryan (16 épisodes, saison 1 et 2)
 Marla Mindelle (VF : Audrey Sourdive) : Olivia, cheffe de Ryan et Kim à Eggwoke (13 épisodes, saison 1 et 2)
@@ -558,8 +577,43 @@
 Max Jenkins (en) (VF : Thibaut Lacour) : Tanner, avec qui Ryan a une relation (7 épisodes, saison 2)
 			Jessica Hecht (Karen)
 			Patrick Fabian (Phil)
-Personnages secondaires et invités
-Gina Marie Hughes : Samantha, une collègue de Ryan et Kim à Eggwoke (7 épisodes, saisons 1 et 2)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages secondaires et invités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gina Marie Hughes : Samantha, une collègue de Ryan et Kim à Eggwoke (7 épisodes, saisons 1 et 2)
 Jason Michael Snow (VF : Yoann Sover) : Keaton, un homme avec Ryan échange sur Grindr (1 épisode, saison 1)
 Brian Jordan Alvarez : Shay, un prostitué (1 épisode, saison 1)
 Mj Vandivier : Laurie, la mère de Karen (1 épisode, saison 1)
@@ -587,52 +641,162 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Création
-Ryan O'Connell est un acteur, auteur et réalisateur qui a notamment travaillé sur les séries Awkward et Will et Grace. En 2015, il sort son livre I’m Special: And Other Lies We Tell Ourselves (en français « Je suis spécial et autres mensonges que l'on se raconte »), entre l'autobiographie et le manifeste. Publié par Simon &amp; Schuster, l'ouvrage rencontre un certain succès[1]. Avant même la publication de I’m Special: And Other Lies We Tell Ourselves, Ryan O'Connell envisage d'adapter son livre à la télévision. Après plusieurs échecs, il est approché par Jim Parsons et Netflix[2].
-Inspirée de I’m Special: And Other Lies We Tell Ourselves, la série est donc partiellement autobiographique[3],[4]. En particulier, Ryan O'Connell a réellement été victime d'un accident de voiture, plus violent que dans Special. Il s'est basé sur son expérience professionnelle pour le site Thought Catalog (en) pour imaginer celle de Ryan à Eggwoke[5]. À la différence de la série, Ryan O'Connell a toutefois connu une jeunesse plus sociable que son personnage avec de nombreux amis, des rapports sexuels plus précoces et un départ du foyer familial à 18 ans[6].
-Ryan O'Connell évoque l'importance pour lui de porter à la télévision l'histoire d'un jeune homme handicapé et homosexuel[7].
-Développement
-Près de quatre ans s'écoulent entre l'option posée sur les droits du livre au printemps 2015 et la diffusion de la série en avril 2019[8]. Special est finalement produite par Warner Bros. Stage 13, That's Wonderful Productions et Campfire[1]. Jim Parsons, Eric Norsoph et Todd Spiewak sont producteurs délégués de la série, tout comme Anna Dokoza qui est également réalisatrice[9].
-L'ensemble des épisodes de la première saison sont écrits par Ryan O'Connell[4]. Special est la première expérience importante d'Anna Dokoza dans la réalisation. Productrice de profession, elle n'avait réalisé qu'un seul épisode de Lady Dynamite auparavant[8]. La série est tournée à Austin au Texas avec un budget limité[8],[10].
-Le bande-annonce de la série est publiée le 25 mars 2019, journée mondiale de sensibilisation à l'infirmité motrice cérébrale[11],[12]. La première saison est intégralement disponible sur Netflix le 12 avril suivant, pour huit épisodes d'environ 15 minutes chacun[3]. Ryan O'Connell attribue le format court de la série — qu'il regrette initialement[13] — à Stage 13, branche de Warner Bros. spécialisée dans les séries digitales[14].
-En décembre 2019, Netflix commande une deuxième saison de Special[1], dont les épisodes voient leur durée doubler (de 15 à 30 minutes environ)[4],[15]. Il est par la suite annoncé que cette saison sera la dernière de la série[4],[15].
-Contrairement à la première saison, Ryan O'Connell est accompagné de scénaristes pour écrire la saison 2 de Special[4]. L'intrigue débute deux mois après la fin de la première saison[15] et permet de découvrir davantage les personnages de Ryan, Kim et Karen[16]. Elle contient également davantage de scènes de sexe que la précédente saison[10].
-Quatre épisodes sont tournés avant la pandémie de Covid-19, qui interrompt le tournage au printemps 2020. Les mois suivants sont donc consacrés au montage de ces épisodes[10],[17]. Le tournage de la deuxième saison reprend à compter du mois d'octobre 2020[17]. Les quatre derniers épisodes de la saison sont réalisés par Craig Johnson[18] et non Anna Dokoza.
-Les huit épisodes de cette deuxième saison de Special sont diffusés sur Netflix le 20 mai 2021[15].
-Attribution des rôles
-Dans ses interviews à la presse, Ryan O'Connell insiste sur l'importance de recruter des acteurs touchés par un handicap pour jouer des rôles correspondants à la télévision. Il dénonce le capacitisme « si systémique et enraciné dans notre culture », appelant à ouvrir la porte à davantage de créateurs handicapés[6]. Selon l'association GLAAD, en 2018, seuls 2 % des personnages récurrents à la télévisions ont un handicap et 95 % d'entre eux sont joués par des acteurs sans handicap[2].
-En plus d'être l'auteur de la série, Ryan O'Connell — lui-même atteint d'infirmité motrice cérébrale — occupe le rôle principal de Ryan Hayes[7]. Dans une interview pour Vulture, il est explique qu'il ne tenait pas à apparaître dans la série, n'ayant aucun désir de jouer, mais qu'il n'avait pas les moyens d'embaucher quelqu'un d'autre lors la vente du concept à Stage 13[14]. La saison 2 accueille par ailleurs plusieurs autres personnages handicapés[17].
-Ryan O'Connell épouse le même raisonnement concernant le besoin d'engager des acteurs homosexuels pour des rôles gays[6], estimant qu'« il est important que nos histoires soient racontées par des personnes les ayant vécues »[8]. Il ajoute : « Je ne pense pas qu'une personne hétéro ne puisse pas jouer un personnage gay. Bien sûr qu'elle le peut. Mais nous ne vivons pas sur un pied d'égalité, d'accord ? La réalité est que les hétérosexuels ont beaucoup plus d'opportunités que les homosexuels »[8]. Dans la série, les personnages homosexuels et certains personnages hétérosexuels sont joués par des acteurs gays[6].
-La mère de Ryan, Karen, est interprétée par Jessica Hecht notamment connue pour son rôle de Susan dans Friends. C'est Jim Parsons qui propose Jessica Hecht pour le rôle, après avoir joué avec elle sur scène dans Harvey en 2012[19]. Punam Patel obtient le rôle de Kim, collègue et amie de Ryan, après avoir été la seule personne reçue en audition[20]. Le casting principal de la saison 1 est complété par Marla Mindelle, amie du compagnon de Ryan O'Connell qui joue Olivia (la cheffe de Ryan et Kim), Patrick Fabian suggéré par Anna Dokoza pour le rôle de Phil (voisin et amant de Karen), et Augustus Prew qui interprète Carey (dont Ryan tombe sous le charme)[8],[21].
-La saison 2 accueille de nouveaux acteurs dont Max Jenkins (en) (Tanner, nouveau partenaire de Ryan), Buck Andrews (Henry, ami autiste et gay de Ryan), Charlie Barnett (Harrison, amant de Kim), Lauren Weedman et Ana Ortiz (Tonya et Susan, des amies de Karen) ainsi que Utkarsh Ambudkar, Anjali Bhimani (en), Ajay Mehta (en) et Karan Soni, qui jouent des proches de Kim. Leslie Jordan fait également une apparition dans cette deuxième saison en tant que guest-star[18].
-Fiche technique
- Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Création</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryan O'Connell est un acteur, auteur et réalisateur qui a notamment travaillé sur les séries Awkward et Will et Grace. En 2015, il sort son livre I’m Special: And Other Lies We Tell Ourselves (en français « Je suis spécial et autres mensonges que l'on se raconte »), entre l'autobiographie et le manifeste. Publié par Simon &amp; Schuster, l'ouvrage rencontre un certain succès. Avant même la publication de I’m Special: And Other Lies We Tell Ourselves, Ryan O'Connell envisage d'adapter son livre à la télévision. Après plusieurs échecs, il est approché par Jim Parsons et Netflix.
+Inspirée de I’m Special: And Other Lies We Tell Ourselves, la série est donc partiellement autobiographique,. En particulier, Ryan O'Connell a réellement été victime d'un accident de voiture, plus violent que dans Special. Il s'est basé sur son expérience professionnelle pour le site Thought Catalog (en) pour imaginer celle de Ryan à Eggwoke. À la différence de la série, Ryan O'Connell a toutefois connu une jeunesse plus sociable que son personnage avec de nombreux amis, des rapports sexuels plus précoces et un départ du foyer familial à 18 ans.
+Ryan O'Connell évoque l'importance pour lui de porter à la télévision l'histoire d'un jeune homme handicapé et homosexuel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près de quatre ans s'écoulent entre l'option posée sur les droits du livre au printemps 2015 et la diffusion de la série en avril 2019. Special est finalement produite par Warner Bros. Stage 13, That's Wonderful Productions et Campfire. Jim Parsons, Eric Norsoph et Todd Spiewak sont producteurs délégués de la série, tout comme Anna Dokoza qui est également réalisatrice.
+L'ensemble des épisodes de la première saison sont écrits par Ryan O'Connell. Special est la première expérience importante d'Anna Dokoza dans la réalisation. Productrice de profession, elle n'avait réalisé qu'un seul épisode de Lady Dynamite auparavant. La série est tournée à Austin au Texas avec un budget limité,.
+Le bande-annonce de la série est publiée le 25 mars 2019, journée mondiale de sensibilisation à l'infirmité motrice cérébrale,. La première saison est intégralement disponible sur Netflix le 12 avril suivant, pour huit épisodes d'environ 15 minutes chacun. Ryan O'Connell attribue le format court de la série — qu'il regrette initialement — à Stage 13, branche de Warner Bros. spécialisée dans les séries digitales.
+En décembre 2019, Netflix commande une deuxième saison de Special, dont les épisodes voient leur durée doubler (de 15 à 30 minutes environ),. Il est par la suite annoncé que cette saison sera la dernière de la série,.
+Contrairement à la première saison, Ryan O'Connell est accompagné de scénaristes pour écrire la saison 2 de Special. L'intrigue débute deux mois après la fin de la première saison et permet de découvrir davantage les personnages de Ryan, Kim et Karen. Elle contient également davantage de scènes de sexe que la précédente saison.
+Quatre épisodes sont tournés avant la pandémie de Covid-19, qui interrompt le tournage au printemps 2020. Les mois suivants sont donc consacrés au montage de ces épisodes,. Le tournage de la deuxième saison reprend à compter du mois d'octobre 2020. Les quatre derniers épisodes de la saison sont réalisés par Craig Johnson et non Anna Dokoza.
+Les huit épisodes de cette deuxième saison de Special sont diffusés sur Netflix le 20 mai 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ses interviews à la presse, Ryan O'Connell insiste sur l'importance de recruter des acteurs touchés par un handicap pour jouer des rôles correspondants à la télévision. Il dénonce le capacitisme « si systémique et enraciné dans notre culture », appelant à ouvrir la porte à davantage de créateurs handicapés. Selon l'association GLAAD, en 2018, seuls 2 % des personnages récurrents à la télévisions ont un handicap et 95 % d'entre eux sont joués par des acteurs sans handicap.
+En plus d'être l'auteur de la série, Ryan O'Connell — lui-même atteint d'infirmité motrice cérébrale — occupe le rôle principal de Ryan Hayes. Dans une interview pour Vulture, il est explique qu'il ne tenait pas à apparaître dans la série, n'ayant aucun désir de jouer, mais qu'il n'avait pas les moyens d'embaucher quelqu'un d'autre lors la vente du concept à Stage 13. La saison 2 accueille par ailleurs plusieurs autres personnages handicapés.
+Ryan O'Connell épouse le même raisonnement concernant le besoin d'engager des acteurs homosexuels pour des rôles gays, estimant qu'« il est important que nos histoires soient racontées par des personnes les ayant vécues ». Il ajoute : « Je ne pense pas qu'une personne hétéro ne puisse pas jouer un personnage gay. Bien sûr qu'elle le peut. Mais nous ne vivons pas sur un pied d'égalité, d'accord ? La réalité est que les hétérosexuels ont beaucoup plus d'opportunités que les homosexuels ». Dans la série, les personnages homosexuels et certains personnages hétérosexuels sont joués par des acteurs gays.
+La mère de Ryan, Karen, est interprétée par Jessica Hecht notamment connue pour son rôle de Susan dans Friends. C'est Jim Parsons qui propose Jessica Hecht pour le rôle, après avoir joué avec elle sur scène dans Harvey en 2012. Punam Patel obtient le rôle de Kim, collègue et amie de Ryan, après avoir été la seule personne reçue en audition. Le casting principal de la saison 1 est complété par Marla Mindelle, amie du compagnon de Ryan O'Connell qui joue Olivia (la cheffe de Ryan et Kim), Patrick Fabian suggéré par Anna Dokoza pour le rôle de Phil (voisin et amant de Karen), et Augustus Prew qui interprète Carey (dont Ryan tombe sous le charme),.
+La saison 2 accueille de nouveaux acteurs dont Max Jenkins (en) (Tanner, nouveau partenaire de Ryan), Buck Andrews (Henry, ami autiste et gay de Ryan), Charlie Barnett (Harrison, amant de Kim), Lauren Weedman et Ana Ortiz (Tonya et Susan, des amies de Karen) ainsi que Utkarsh Ambudkar, Anjali Bhimani (en), Ajay Mehta (en) et Karan Soni, qui jouent des proches de Kim. Leslie Jordan fait également une apparition dans cette deuxième saison en tant que guest-star.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fiche technique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titres original et français : Special
 Titre québécois : Spécial
 Création : Ryan O'Connell
@@ -658,71 +822,45 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Special_(série_télévisée)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Handicap/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Saison 1
-Saison 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Special_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Réception critique
-La série est généralement bien accueillie par la critique[13]. Pour sa première saison, Rotten Tomatoes attribue à la série un score de 96 % sur la base de 25 critiques. Le score de la saison 2 est de 100 %, d'après 5 critiques[22]. Sur Metacritic, la saison 1 obtient des « critiques généralement favorables » avec un score de 67 (basé sur 10 critiques)[23].
-Special est notamment salué pour sa représentation des personnes handicapées[3] et son caractère « révolutionnaire »[16]. Pour la première fois à la télévision, un homme handicapé et homosexuel est représenté lors de rapports sexuels[13]. La presse apprécie sa vision « franche » et « réaliste » des relations sexuelles entre hommes[10],[24].
-Les prestations de Jessica Hecht et Punam Patel sont particulièrement remarquées[3],[16]. Avec Ryan O'Connell, elles sont nommées aux Emmy Awards 2019 pour leur rôle[20]. Special est alors la série courte la plus nommée de ces 71e Emmy Awards[8].
-Le magazine américain Vulture parle d'une série « hilarante avec une touche de ténèbres »[14]. En France, Le Parisien attribue une note de 4 sur 5 aux deux saisons de la série, parlant d'une « jolie pépite apparue de manière inattendue »[4],[25]. Tim Dowling du Guardian qualifie la série d'« incroyablement douce » et de « franche et tonifiante », notamment à propos du handicap, de l'indépendance et de la sexualité. Il estime cependant que « Special a plus de succès dans l'autobiographie que dans la satire »[26].
-Plus critique, Liam Mathews de TV Guide considère que Special serait une web-série « impressionnante » mais n'est pas au niveau d'une production de Netflix. Il estime que les premiers épisodes sont « mauvais », peu drôles, mais que la série et le jeu d'acteur de Ryan O'Connell s'améliorent au fur et à mesure de la première saison[27].
-Après la saison 1, Caroline Framke écrit dans Variety que la série serait « fascinante » si elle avait « davantage de temps pour raconter son histoire »[5]. Pour la deuxième saison, elle souligne « l'excellent travail » des acteurs, qui permet « d'explorer davantage en profondeur » les personnages de Ryan, Kim et Karen[16]. Ryan Gilbey du Guardian rejoint ce sentiment d'une deuxième saison « bien plus riche dramatiquement », donnant de la place à ses personnages secondaires féminins[6].
-Nominations et récompenses</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Réception critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est généralement bien accueillie par la critique. Pour sa première saison, Rotten Tomatoes attribue à la série un score de 96 % sur la base de 25 critiques. Le score de la saison 2 est de 100 %, d'après 5 critiques. Sur Metacritic, la saison 1 obtient des « critiques généralement favorables » avec un score de 67 (basé sur 10 critiques).
+Special est notamment salué pour sa représentation des personnes handicapées et son caractère « révolutionnaire ». Pour la première fois à la télévision, un homme handicapé et homosexuel est représenté lors de rapports sexuels. La presse apprécie sa vision « franche » et « réaliste » des relations sexuelles entre hommes,.
+Les prestations de Jessica Hecht et Punam Patel sont particulièrement remarquées,. Avec Ryan O'Connell, elles sont nommées aux Emmy Awards 2019 pour leur rôle. Special est alors la série courte la plus nommée de ces 71e Emmy Awards.
+Le magazine américain Vulture parle d'une série « hilarante avec une touche de ténèbres ». En France, Le Parisien attribue une note de 4 sur 5 aux deux saisons de la série, parlant d'une « jolie pépite apparue de manière inattendue »,. Tim Dowling du Guardian qualifie la série d'« incroyablement douce » et de « franche et tonifiante », notamment à propos du handicap, de l'indépendance et de la sexualité. Il estime cependant que « Special a plus de succès dans l'autobiographie que dans la satire ».
+Plus critique, Liam Mathews de TV Guide considère que Special serait une web-série « impressionnante » mais n'est pas au niveau d'une production de Netflix. Il estime que les premiers épisodes sont « mauvais », peu drôles, mais que la série et le jeu d'acteur de Ryan O'Connell s'améliorent au fur et à mesure de la première saison.
+Après la saison 1, Caroline Framke écrit dans Variety que la série serait « fascinante » si elle avait « davantage de temps pour raconter son histoire ». Pour la deuxième saison, elle souligne « l'excellent travail » des acteurs, qui permet « d'explorer davantage en profondeur » les personnages de Ryan, Kim et Karen. Ryan Gilbey du Guardian rejoint ce sentiment d'une deuxième saison « bien plus riche dramatiquement », donnant de la place à ses personnages secondaires féminins.
+</t>
         </is>
       </c>
     </row>
